--- a/contract_extractions.xlsx
+++ b/contract_extractions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,47 +1307,47 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-15 13:03:06</t>
+          <t>2025-12-18 09:08:58</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-3-compressed.pdf</t>
+          <t>lease_invoice_LS-2025-204.pdf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Invoice: INV - 000001</t>
+          <t>Invoice: LS-2025-204</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INVOICE</t>
+          <t>LEASE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Construction Expense</t>
+          <t>Rent &amp; Lease Expense</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vendor: Zylker Greenscape, Customer: Jessica Brown</t>
+          <t>UrbanTower Networks, Epsilon Broadband</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-08-31</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12688.76</t>
+          <t>10320.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1357,29 +1357,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3/100 (Low)</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-15 13:13:05</t>
+          <t>2025-12-18 09:10:13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-14-compressed.pdf</t>
+          <t>invoice_LT-2025-902.pdf</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Invoice: INV - 000001</t>
+          <t>Invoice: LT-2025-902</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1389,27 +1389,27 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Advertising &amp; Marketing</t>
+          <t>IT &amp; Technical Services</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vendor: Zylker Design Labs, Customer: Jack Little</t>
+          <t>Vendor: LinkTrack Solutions, Customer: Epsilon Networks Pvt. Ltd.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>19320.00</t>
+          <t>3400.00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1424,24 +1424,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18/100 (Low)</t>
+          <t>3/100 (Low)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-15 13:29:08</t>
+          <t>2025-12-18 09:10:49</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-8-compressed.pdf</t>
+          <t>construction-invoice-template-1x-5-compressed.pdf</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Invoice: INV - 000011</t>
+          <t>Invoice: INV - 000001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Digital Marketing &amp; SEO</t>
+          <t>IT Equipment &amp; Hardware</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vendor: Zylker WordCraft, Customer: Jack Little</t>
+          <t>Vendor: Zylker Electronics Hub, Customer: Ms. Mary D. Dunton</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7073.00</t>
+          <t>2338.35</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1486,54 +1486,54 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>18/100 (Low)</t>
+          <t>3/100 (Low)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-15 13:30:23</t>
+          <t>2025-12-18 09:12:46</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-8-compressed.pdf</t>
+          <t>lease_invoice_LS-2025-204.pdf</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Invoice: INV - 000011</t>
+          <t>Invoice: LS-2025-204</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INVOICE</t>
+          <t>LEASE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Digital Marketing &amp; SEO</t>
+          <t>Rent &amp; Lease Expense</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vendor: Zylker WordCraft, Customer: Jack Little</t>
+          <t>UrbanTower Networks, Epsilon Broadband</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>7073.00</t>
+          <t>10320.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1543,24 +1543,24 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>18/100 (Low)</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-12-15 13:30:51</t>
+          <t>2025-12-18 09:13:36</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-12-compressed.pdf</t>
+          <t>construction-invoice-template-1x-3-compressed.pdf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Advertising &amp; Marketing</t>
+          <t>Construction Expense</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vendor: Zylker Design Labs, Customer: Jack Little</t>
+          <t>Vendor: Zylker Greenscape, Customer: Jessica Brown</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2024-08-31</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>19320.00</t>
+          <t>12688.76</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1617,47 +1617,47 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-12-15 13:33:09</t>
+          <t>2025-12-18 09:16:40</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-6-compressed.pdf</t>
+          <t>lease_invoice_LS-2025-203.pdf</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Invoice: INV - 000001</t>
+          <t>Invoice: LS-2025-203</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INVOICE</t>
+          <t>LEASE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>IT Equipment &amp; Hardware</t>
+          <t>Rent &amp; Lease Expense</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vendor: Zylker Electronics Hub, Customer: Ms. Mary D. Dunton</t>
+          <t>MegaPole Infra Corp., Delta Internet Pvt. Ltd.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2338.35</t>
+          <t>8550.00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1667,29 +1667,29 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>3/100 (Low)</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-12-15 13:41:05</t>
+          <t>2025-12-18 09:16:56</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-10-compressed.pdf</t>
+          <t>construction-invoice-template-1x-6-compressed.pdf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Invoice: INV - 000006</t>
+          <t>Invoice: INV - 000001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>General Expense</t>
+          <t>IT Equipment &amp; Hardware</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vendor: Zylker Heathcare, Customer: Aaron Brown</t>
+          <t>Vendor: Zylker Electronics Hub, Customer: Ms. Mary D. Dunton</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14595.00</t>
+          <t>2338.35</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1741,12 +1741,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-12-15 13:41:35</t>
+          <t>2025-12-18 09:17:06</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-4-compressed.pdf</t>
+          <t>construction-invoice-template-1x-6-compressed.pdf</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Courier &amp; Delivery Services</t>
+          <t>IT Equipment &amp; Hardware</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vendor: Zylker Deliveries, Customer: Aaron Brown</t>
+          <t>Vendor: Zylker Electronics Hub, Customer: Ms. Mary D. Dunton</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11865.00</t>
+          <t>2338.35</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1803,52 +1803,52 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-12-15 13:42:07</t>
+          <t>2025-12-18 09:22:02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-12-compressed.pdf</t>
+          <t>construction-invoice-template-1x-1-compressed.pdf</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Invoice: INV - 000001</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INVOICE</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Advertising &amp; Marketing</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vendor: Zylker Design Labs, Customer: Jack Little</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-08-05</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19320.00</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,67 +1858,1431 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>3/100 (Low)</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-12-15 13:46:38</t>
+          <t>2025-12-18 09:24:55</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>lease_invoice_LS-2025-204.pdf</t>
+          <t>construction-invoice-template-1x-2-compressed.pdf</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Invoice: LS-2025-204</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LEASE</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Rent &amp; Lease Expense</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UrbanTower Networks, Epsilon Broadband</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10320.00</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:27:46</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-3-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:31:26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-6-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:33:46</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-8-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:36:55</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-12-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:42:36</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-6-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:43:05</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-15-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-12-18 09:48:36</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-13-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:35:58</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-8-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:36:41</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-10-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:38:18</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-1-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-12-18 10:40:06</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-3-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:07:17</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-12-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:12:02</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-12-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:12:11</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-12-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:12:46</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-8-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:15:56</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-5-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Invoice: INV - 000001</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>IT Equipment &amp; Hardware</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Vendor: Zylker Electronics Hub, Customer: Ms. Mary D. Dunton</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2338.35</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:16:21</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>invoice_OC-2025-448.pdf</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Invoice: OC-2025-448</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>IT &amp; Technical Services</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Vendor: OptiConnect Telecom, Customer: Zeta Broadband Services</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:17:32</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-6-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Invoice: INV - 000001</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>IT Equipment &amp; Hardware</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Vendor: Zylker Electronics Hub, Customer: Ms. Mary D. Dunton</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2338.35</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:18:47</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-9-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Invoice: INV - 000001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Travel &amp; Accommodation</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Vendor: Zylker Hotels, Customer: Aaron Brown</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1249.50</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:24:09</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-8-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>General Expense</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>78/100 (High)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:25:41</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-7-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Invoice: INV - 000006</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Legal &amp; Professional Fees</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Vendor: Zylker Translation Services, Customer: Emily Johnson</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>198.54</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-12-18 11:32:25</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-1-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Invoice: INV - 000001</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Construction Expense</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Vendor: Zylker Masterworks, Customer: Michael Williams</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>7200.32</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contract_extractions.xlsx
+++ b/contract_extractions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,17 +501,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-02 08:18:09</t>
+          <t>2026-01-02 14:52:05</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>construction-invoice-template-1x-1-compressed.pdf</t>
+          <t>construction-invoice-template-1x-8-compressed.pdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Invoice: INV - 000001</t>
+          <t>Invoice: INV - 000011</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -521,27 +521,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Construction Expense</t>
+          <t>Digital Marketing &amp; SEO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vendor: Zylker Masterworks, Customer: Michael Williams</t>
+          <t>Vendor: Zylker WordCraft, Customer: Jack Little</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7200.32</t>
+          <t>7073.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -556,54 +556,54 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3/100 (Low)</t>
+          <t>30/100 (Medium)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-02 08:18:54</t>
+          <t>2026-01-02 14:53:08</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>lease_invoice_LS-2025-203.pdf</t>
+          <t>construction-invoice-template-1x-1-compressed.pdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Invoice: LS-2025-203</t>
+          <t>Invoice: INV - 000001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LEASE</t>
+          <t>INVOICE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rent &amp; Lease Expense</t>
+          <t>Construction Expense</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MegaPole Infra Corp., Delta Internet Pvt. Ltd.</t>
+          <t>Vendor: Zylker Masterworks, Customer: Michael Williams</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8550.00</t>
+          <t>7200.32</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -613,10 +613,138 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-02 14:55:19</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-7-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Invoice: INV-000006</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Legal &amp; Professional Fees</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vendor: Zylker  Translation  Services, Customer: Emily  Johnson</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>198.54</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-02 14:55:48</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>construction-invoice-template-1x-12-compressed.pdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Invoice: INV-000001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Advertising &amp; Marketing</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vendor: Zylker Design Labs, Customer: Jack Little</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>19320.00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3/100 (Low)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contract_extractions.xlsx
+++ b/contract_extractions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hts\Desktop\contract-extractor-gcp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\contract-extractor-gcp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F950C7-9261-4C7E-A104-4C9509D8A1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748C03A9-1F6B-4983-91E0-852F5138794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,15 +421,15 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/contract_extractions.xlsx
+++ b/contract_extractions.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\contract-extractor-gcp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748C03A9-1F6B-4983-91E0-852F5138794E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Extracted At</t>
-  </si>
-  <si>
-    <t>Document Name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Account Type (Head)</t>
-  </si>
-  <si>
-    <t>Party Names</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Risk Score</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,55 +420,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Extracted At</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Document Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Document Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Account Type (Head)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Party Names</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-09 12:35:38</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>lease_invoice_LS-2025-205.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Invoice: LS-2025-205</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LEASE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Rent &amp; Lease Expense</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>AeroTower Infrastructure, Zeta Mobile Services</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>103500.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contract_extractions.xlsx
+++ b/contract_extractions.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB768409-9941-490B-BF6B-8A01D36B4BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Extracted At</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Account Type (Head)</t>
+  </si>
+  <si>
+    <t>Party Names</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Risk Score</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,141 +417,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Extracted At</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Document Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Document Type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Account Type (Head)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Party Names</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Due Date</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2026-01-09 12:35:38</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>lease_invoice_LS-2025-205.pdf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Invoice: LS-2025-205</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LEASE</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Rent &amp; Lease Expense</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>AeroTower Infrastructure, Zeta Mobile Services</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>103500.00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Yearly</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contract_extractions.xlsx
+++ b/contract_extractions.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\invoicetoAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8F857B-5A84-49DB-B58E-EFAFF91A2903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Extracted At</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Document Type</t>
+  </si>
+  <si>
+    <t>Account Type (Head)</t>
+  </si>
+  <si>
+    <t>Party Names</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Risk Score</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,141 +417,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Extracted At</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Document Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Document Type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Account Type (Head)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Party Names</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Start Date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Due Date</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2026-01-09 12:35:38</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>lease_invoice_LS-2025-205.pdf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Invoice: LS-2025-205</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LEASE</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Rent &amp; Lease Expense</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>AeroTower Infrastructure, Zeta Mobile Services</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2026-01-01</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>103500.00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Yearly</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/contract_extractions.xlsx
+++ b/contract_extractions.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\invoicetoAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8F857B-5A84-49DB-B58E-EFAFF91A2903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Extracted At</t>
-  </si>
-  <si>
-    <t>Document Name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Document Type</t>
-  </si>
-  <si>
-    <t>Account Type (Head)</t>
-  </si>
-  <si>
-    <t>Party Names</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Risk Score</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,54 +420,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Extracted At</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Document Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Document Type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Account Type (Head)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Party Names</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Due Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Risk Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-12 16:46:02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>doc1.pdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Invoice: EXP-2025-0092</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Raw Materials &amp; Components</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Vendor: Zenith Precision Engineering Ltd., Customer: AeroSpace Dynamics Inc.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>32520.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-12 16:50:22</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>doc2.pdf</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Invoice: CDS/25-26/0442; PO: PO-NEX-2026-11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INVOICE</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Software Subscriptions &amp; Licenses</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Vendor: CHROMATIC Digital Solutions Pvt. Ltd., Customer: Nexus Healthcare Systems</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>815527.50</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>30/100 (Medium)</t>
+        </is>
       </c>
     </row>
   </sheetData>
